--- a/output/Target_Stats.xlsx
+++ b/output/Target_Stats.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TARGET1 (Satisfied)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TARGET2 (Recommend)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TARGET3 (Continue)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Behavioural intention_Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Behavioural intention_Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage behaviour_Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage behaviour_Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TARGET1 (Satisfied)</t>
+          <t>Behavioural intention_Q1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -454,57 +455,57 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>44.9</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TARGET2 (Recommend)</t>
+          <t>Behavioural intention_Q2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -545,57 +546,57 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>32.6</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>6.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +621,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TARGET3 (Continue)</t>
+          <t>Usage behaviour_Q1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -639,43 +640,43 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>41.6</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>37.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
       <c r="C5" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6">
@@ -686,7 +687,98 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Usage behaviour_Q2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
